--- a/Davuluri_LabExam03Grading.xlsx
+++ b/Davuluri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>Author notation</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t xml:space="preserve">Duduct full marks for </t>
+  </si>
+  <si>
+    <t>For partial scanning of data from input file</t>
+  </si>
+  <si>
+    <t>For no output</t>
+  </si>
+  <si>
+    <t>For compilation errors</t>
   </si>
 </sst>
 </file>
@@ -396,7 +405,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,19 +429,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,6 +542,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -540,15 +558,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1220,7 +1229,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A33:F34"/>
   <tableColumns count="6">
     <tableColumn id="1" name="S. No" dataDxfId="4"/>
@@ -1500,7 +1509,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,14 +1523,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1602,11 +1611,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1618,14 +1627,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1720,11 +1729,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1736,14 +1745,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1890,11 +1899,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1906,14 +1915,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1948,8 +1957,12 @@
       <c r="D29" s="2">
         <v>16</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="32"/>
+      <c r="E29" s="2">
+        <v>8</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -1964,34 +1977,38 @@
       <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E29:E30)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2030,11 +2047,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2046,14 +2063,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2069,28 +2086,35 @@
         <v>-5</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>-5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2098,11 +2122,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Davuluri_LabExam03Grading.xlsx
+++ b/Davuluri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>Author notation</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>For compilation errors</t>
+  </si>
+  <si>
+    <t>(-1) for incorrect format for toString method</t>
   </si>
 </sst>
 </file>
@@ -408,6 +411,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,18 +433,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1508,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,14 +1526,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1565,7 +1568,9 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,7 +1584,9 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1593,7 +1600,9 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1607,34 +1616,36 @@
       <c r="D6" s="18">
         <v>2</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(E3:E6)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1667,7 +1678,9 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,7 +1694,9 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1695,7 +1710,9 @@
       <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,7 +1726,9 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1725,34 +1744,38 @@
       <c r="D14" s="18">
         <v>2</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E10:E14)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1899,11 +1922,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1915,14 +1938,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1985,11 +2008,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2001,14 +2024,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2047,11 +2070,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2063,14 +2086,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2093,28 +2116,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2122,6 +2140,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Davuluri_LabExam03Grading.xlsx
+++ b/Davuluri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Author notation</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>(-1) for incorrect format for toString method</t>
+  </si>
+  <si>
+    <t>(-2)For not initializing hash map.</t>
+  </si>
+  <si>
+    <t>(-7)For not passing test cases.</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,16 +438,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1511,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,14 +1532,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1622,11 +1628,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1638,14 +1644,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1752,11 +1758,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1768,14 +1774,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1810,8 +1816,12 @@
       <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1824,7 +1834,9 @@
       <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1840,7 +1852,9 @@
       <c r="D20" s="2">
         <v>10</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,34 +1932,36 @@
       <c r="D25" s="18">
         <v>2</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2008,11 +2024,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2024,14 +2040,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2066,15 +2082,19 @@
       <c r="D34" s="2">
         <v>7</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2086,14 +2106,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2116,23 +2136,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2140,11 +2165,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Davuluri_LabExam03Grading.xlsx
+++ b/Davuluri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>Author notation</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>(-7)For not passing test cases.</t>
+  </si>
+  <si>
+    <t>For not writing the logic/Functionality</t>
   </si>
 </sst>
 </file>
@@ -417,6 +420,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,18 +442,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1518,7 +1521,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,14 +1535,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1628,11 +1631,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1644,14 +1647,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1758,11 +1761,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1774,14 +1777,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1870,8 +1873,12 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -1902,8 +1909,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1938,30 +1949,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2024,11 +2035,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2040,14 +2051,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2090,11 +2101,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2106,14 +2117,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2136,28 +2147,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2165,6 +2171,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Davuluri_LabExam03Grading.xlsx
+++ b/Davuluri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Author notation</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>(-7)For not passing test cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -8 for incomplete method</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5 for wrong logic </t>
   </si>
 </sst>
 </file>
@@ -417,6 +423,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,18 +445,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1517,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,14 +1538,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1628,11 +1634,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1644,14 +1650,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1758,11 +1764,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1774,14 +1780,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1886,8 +1892,12 @@
       <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -1918,8 +1928,12 @@
       <c r="D24" s="2">
         <v>10</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -1938,30 +1952,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2024,11 +2038,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2040,14 +2054,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2090,11 +2104,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2106,14 +2120,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2136,28 +2150,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2165,6 +2174,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Davuluri_LabExam03Grading.xlsx
+++ b/Davuluri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>Author notation</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t xml:space="preserve"> -5 for wrong logic </t>
+  </si>
+  <si>
+    <t>For not writing logic</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,16 +447,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1524,7 +1527,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,14 +1541,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1634,11 +1637,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1650,14 +1653,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1764,11 +1767,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1780,14 +1783,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1876,8 +1879,12 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -1912,8 +1919,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1952,30 +1963,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2038,11 +2049,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2054,14 +2065,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2104,11 +2115,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2120,14 +2131,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2150,23 +2161,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2174,11 +2190,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Davuluri_LabExam03Grading.xlsx
+++ b/Davuluri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,13 +167,13 @@
     <t>(-7)For not passing test cases.</t>
   </si>
   <si>
-    <t xml:space="preserve"> -8 for incomplete method</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5 for wrong logic </t>
-  </si>
-  <si>
     <t>For not writing logic</t>
+  </si>
+  <si>
+    <t>(-1) for declaring the set wrong, (-1) for unable to iterate over the keyset, (-1) for unable to iterate over the values of a key, (-2) for not comparing the brand names, (-2) for not adding the customer into the set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-9) for not writing the implementation/logic.</t>
   </si>
 </sst>
 </file>
@@ -426,6 +426,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,18 +448,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,18 +1537,18 @@
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="6" max="6" width="190.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1637,11 +1637,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1653,14 +1653,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1767,11 +1767,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1783,14 +1783,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1900,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>48</v>
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,10 +1940,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1963,30 +1963,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2049,11 +2049,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2065,14 +2065,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2115,11 +2115,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2131,14 +2131,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2161,28 +2161,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2190,6 +2185,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Davuluri_LabExam03Grading.xlsx
+++ b/Davuluri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,9 +158,6 @@
     <t>For compilation errors</t>
   </si>
   <si>
-    <t>(-1) for incorrect format for toString method</t>
-  </si>
-  <si>
     <t>(-2)For not initializing hash map.</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t xml:space="preserve"> (-9) for not writing the implementation/logic.</t>
+  </si>
+  <si>
+    <t>(-0.5) for incorrect format for toString method.This method should return productName- productBand but  returned  "Product{" + "productName=" + productName + ", productBrand=" + productBrand + '}';</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,16 +447,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,14 +1541,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1637,11 +1637,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1653,14 +1653,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1760,37 +1760,37 @@
         <v>2</v>
       </c>
       <c r="E14" s="18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E10:E14)</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1963,11 +1963,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1979,14 +1979,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2049,11 +2049,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2065,14 +2065,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2111,15 +2111,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2131,14 +2131,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2161,23 +2161,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>39</v>
+        <v>39.5</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2185,11 +2190,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Davuluri_LabExam03Grading.xlsx
+++ b/Davuluri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>Author notation</t>
   </si>
@@ -161,9 +161,6 @@
     <t>(-2)For not initializing hash map.</t>
   </si>
   <si>
-    <t>(-7)For not passing test cases.</t>
-  </si>
-  <si>
     <t>For not writing logic</t>
   </si>
   <si>
@@ -174,6 +171,13 @@
   </si>
   <si>
     <t>(-0.5) for incorrect format for toString method.This method should return productName- productBand but  returned  "Product{" + "productName=" + productName + ", productBrand=" + productBrand + '}';</t>
+  </si>
+  <si>
+    <t>(-1)For incorrect condition for checking customer exists or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-4)I have changed your addProduct() code and run the test cases then 4 test cases failed but I didn’t deducted any points for remaining test cases
+</t>
   </si>
 </sst>
 </file>
@@ -364,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,6 +430,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,17 +454,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1526,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,14 +1548,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1637,11 +1644,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1653,14 +1660,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1763,15 +1770,15 @@
         <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1783,14 +1790,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1862,9 +1869,11 @@
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <v>10</v>
-      </c>
-      <c r="F20" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -1883,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1903,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1963,30 +1972,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2049,11 +2058,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2065,14 +2074,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2094,7 +2103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>18</v>
       </c>
@@ -2108,37 +2117,37 @@
         <v>7</v>
       </c>
       <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
       </c>
       <c r="E35" s="6">
         <f>SUM(E34)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2161,28 +2170,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>39.5</v>
+        <v>41.5</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2190,6 +2194,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Davuluri_LabExam03Grading.xlsx
+++ b/Davuluri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,15 +149,6 @@
     <t xml:space="preserve">Duduct full marks for </t>
   </si>
   <si>
-    <t>For partial scanning of data from input file</t>
-  </si>
-  <si>
-    <t>For no output</t>
-  </si>
-  <si>
-    <t>For compilation errors</t>
-  </si>
-  <si>
     <t>(-2)For not initializing hash map.</t>
   </si>
   <si>
@@ -178,6 +169,15 @@
   <si>
     <t xml:space="preserve">(-4)I have changed your addProduct() code and run the test cases then 4 test cases failed but I didn’t deducted any points for remaining test cases
 </t>
+  </si>
+  <si>
+    <t>(-4) for no output displayed due to  compilation errors</t>
+  </si>
+  <si>
+    <t>(-8) for not creating customer object at certain point and not checking while the scanner has more data and incorrect condition for ending do while loop</t>
+  </si>
+  <si>
+    <t>(-5) For compilation errors in driver as well as other classes</t>
   </si>
 </sst>
 </file>
@@ -430,32 +430,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,14 +1548,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1644,11 +1644,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1660,14 +1660,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1770,15 +1770,15 @@
         <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1790,14 +1790,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1972,11 +1972,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1988,14 +1988,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2034,7 +2034,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2054,15 +2054,15 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2074,14 +2074,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2119,16 +2119,16 @@
       <c r="E34" s="2">
         <v>3</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>50</v>
+      <c r="F34" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2140,14 +2140,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2166,15 +2166,15 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
@@ -2187,6 +2187,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2194,11 +2199,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Davuluri_LabExam03Grading.xlsx
+++ b/Davuluri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>Author notation</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>(-2)For not initializing hash map.</t>
-  </si>
-  <si>
-    <t>For not writing logic</t>
   </si>
   <si>
     <t>(-1) for declaring the set wrong, (-1) for unable to iterate over the keyset, (-1) for unable to iterate over the values of a key, (-2) for not comparing the brand names, (-2) for not adding the customer into the set.</t>
@@ -178,6 +175,12 @@
   <si>
     <t xml:space="preserve">(-4)I have changed your addProduct() code and run the test cases then 4 test cases failed but I didn’t deducted any points for remaining test cases
 </t>
+  </si>
+  <si>
+    <t>(-9) For not writing implementation or logic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-7.5) For not writing logic. </t>
   </si>
 </sst>
 </file>
@@ -430,32 +433,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1533,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,14 +1551,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1644,11 +1647,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1660,14 +1663,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1770,15 +1773,15 @@
         <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1790,14 +1793,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1872,7 +1875,7 @@
         <v>9</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1892,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1912,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1929,10 +1932,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1952,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1972,30 +1975,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2058,11 +2061,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2074,14 +2077,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2119,16 +2122,16 @@
       <c r="E34" s="2">
         <v>3</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>50</v>
+      <c r="F34" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2140,14 +2143,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2170,23 +2173,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>41.5</v>
+        <v>43</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2194,11 +2202,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
